--- a/data/georgia_census/adjara/batumi/population_total.xlsx
+++ b/data/georgia_census/adjara/batumi/population_total.xlsx
@@ -1272,13 +1272,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81B33536-EA65-4690-962D-B8D7983440DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A5875E5-9371-455E-8F35-A9C7C780FC78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536DE048-7FF0-42E0-996E-2DA92A2B053F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6990ED2-457E-4592-B6BF-C785BCB2980A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB2F726-6700-450A-832C-8691D698FBF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DD3A31E-7B14-4A4E-BD08-3BBBE822AAFC}"/>
 </file>